--- a/cfs_6_0.9.xlsx
+++ b/cfs_6_0.9.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.573</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.599</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.605</v>
+        <v>0.594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.68</v>
+        <v>0.617</v>
       </c>
       <c r="D4" t="n">
         <v>0.479</v>
@@ -619,10 +619,10 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.597</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.355</v>
+        <v>0.394</v>
       </c>
       <c r="I4" t="n">
         <v>0.5629999999999999</v>
@@ -665,13 +665,13 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.618</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
-        <v>0.352</v>
+        <v>0.373</v>
       </c>
       <c r="I5" t="n">
-        <v>0.538</v>
+        <v>0.551</v>
       </c>
       <c r="J5" t="n">
         <v>0.322</v>
@@ -711,10 +711,10 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.593</v>
+        <v>0.723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.353</v>
+        <v>0.404</v>
       </c>
       <c r="I6" t="n">
         <v>0.589</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.524</v>
+        <v>0.546</v>
       </c>
       <c r="C7" t="n">
         <v>0.679</v>
@@ -751,13 +751,13 @@
         <v>0.456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.577</v>
+        <v>0.517</v>
       </c>
       <c r="F7" t="n">
         <v>0.553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.519</v>
+        <v>0.674</v>
       </c>
       <c r="H7" t="n">
         <v>0.4</v>
@@ -800,19 +800,19 @@
         <v>0.596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.533</v>
+        <v>0.607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.593</v>
+        <v>0.707</v>
       </c>
       <c r="H8" t="n">
-        <v>0.353</v>
+        <v>0.404</v>
       </c>
       <c r="I8" t="n">
         <v>0.579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.431</v>
+        <v>0.467</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -849,7 +849,7 @@
         <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.599</v>
+        <v>0.78</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.595</v>
+        <v>0.573</v>
       </c>
       <c r="C10" t="n">
         <v>0.673</v>
@@ -889,13 +889,13 @@
         <v>0.48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.595</v>
+        <v>0.539</v>
       </c>
       <c r="F10" t="n">
         <v>0.604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="H10" t="n">
         <v>0.367</v>
@@ -941,16 +941,16 @@
         <v>0.576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.623</v>
+        <v>0.736</v>
       </c>
       <c r="H11" t="n">
         <v>0.381</v>
       </c>
       <c r="I11" t="n">
-        <v>0.552</v>
+        <v>0.584</v>
       </c>
       <c r="J11" t="n">
-        <v>0.378</v>
+        <v>0.426</v>
       </c>
       <c r="K11" t="n">
         <v>0.505</v>
@@ -981,13 +981,13 @@
         <v>0.482</v>
       </c>
       <c r="E12" t="n">
-        <v>0.591</v>
+        <v>0.515</v>
       </c>
       <c r="F12" t="n">
-        <v>0.521</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.626</v>
+        <v>0.716</v>
       </c>
       <c r="H12" t="n">
         <v>0.376</v>
@@ -1033,16 +1033,16 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.615</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.636</v>
       </c>
       <c r="J13" t="n">
-        <v>0.335</v>
+        <v>0.384</v>
       </c>
       <c r="K13" t="n">
         <v>0.458</v>
@@ -1073,13 +1073,13 @@
         <v>0.443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.578</v>
+        <v>0.518</v>
       </c>
       <c r="F14" t="n">
-        <v>0.556</v>
+        <v>0.457</v>
       </c>
       <c r="G14" t="n">
-        <v>0.543</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0.374</v>
@@ -1119,7 +1119,7 @@
         <v>0.473</v>
       </c>
       <c r="E15" t="n">
-        <v>0.642</v>
+        <v>0.52</v>
       </c>
       <c r="F15" t="n">
         <v>0.596</v>
@@ -1140,7 +1140,7 @@
         <v>0.467</v>
       </c>
       <c r="L15" t="n">
-        <v>0.516</v>
+        <v>0.424</v>
       </c>
       <c r="M15" t="n">
         <v>5.162790697674419</v>
@@ -1159,7 +1159,7 @@
         <v>0.518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="D16" t="n">
         <v>0.455</v>
@@ -1168,10 +1168,10 @@
         <v>0.601</v>
       </c>
       <c r="F16" t="n">
-        <v>0.521</v>
+        <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.626</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0.35</v>
@@ -1205,7 +1205,7 @@
         <v>0.547</v>
       </c>
       <c r="C17" t="n">
-        <v>0.715</v>
+        <v>0.729</v>
       </c>
       <c r="D17" t="n">
         <v>0.471</v>
@@ -1217,7 +1217,7 @@
         <v>0.573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.627</v>
+        <v>0.794</v>
       </c>
       <c r="H17" t="n">
         <v>0.361</v>
@@ -1229,7 +1229,7 @@
         <v>0.325</v>
       </c>
       <c r="K17" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L17" t="n">
         <v>0.428</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.634</v>
+        <v>0.605</v>
       </c>
       <c r="C18" t="n">
         <v>0.694</v>
@@ -1257,16 +1257,16 @@
         <v>0.496</v>
       </c>
       <c r="E18" t="n">
-        <v>0.616</v>
+        <v>0.549</v>
       </c>
       <c r="F18" t="n">
         <v>0.596</v>
       </c>
       <c r="G18" t="n">
-        <v>0.658</v>
+        <v>0.76</v>
       </c>
       <c r="H18" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="I18" t="n">
         <v>0.5580000000000001</v>
@@ -1303,19 +1303,19 @@
         <v>0.391</v>
       </c>
       <c r="E19" t="n">
-        <v>0.645</v>
+        <v>0.542</v>
       </c>
       <c r="F19" t="n">
         <v>0.552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.599</v>
+        <v>0.71</v>
       </c>
       <c r="H19" t="n">
         <v>0.412</v>
       </c>
       <c r="I19" t="n">
-        <v>0.638</v>
+        <v>0.603</v>
       </c>
       <c r="J19" t="n">
         <v>0.456</v>
@@ -1324,7 +1324,7 @@
         <v>0.497</v>
       </c>
       <c r="L19" t="n">
-        <v>0.482</v>
+        <v>0.476</v>
       </c>
       <c r="M19" t="n">
         <v>1.03125</v>
@@ -1349,13 +1349,13 @@
         <v>0.473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.594</v>
+        <v>0.528</v>
       </c>
       <c r="F20" t="n">
         <v>0.552</v>
       </c>
       <c r="G20" t="n">
-        <v>0.599</v>
+        <v>0.695</v>
       </c>
       <c r="H20" t="n">
         <v>0.373</v>
@@ -1367,7 +1367,7 @@
         <v>0.334</v>
       </c>
       <c r="K20" t="n">
-        <v>0.444</v>
+        <v>0.375</v>
       </c>
       <c r="L20" t="n">
         <v>0.431</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.604</v>
+        <v>0.602</v>
       </c>
       <c r="C21" t="n">
         <v>0.724</v>
@@ -1395,13 +1395,13 @@
         <v>0.495</v>
       </c>
       <c r="E21" t="n">
-        <v>0.633</v>
+        <v>0.554</v>
       </c>
       <c r="F21" t="n">
         <v>0.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.62</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0.329</v>
@@ -1441,7 +1441,7 @@
         <v>0.461</v>
       </c>
       <c r="E22" t="n">
-        <v>0.594</v>
+        <v>0.528</v>
       </c>
       <c r="F22" t="n">
         <v>0.604</v>
@@ -1459,10 +1459,10 @@
         <v>0.32</v>
       </c>
       <c r="K22" t="n">
-        <v>0.581</v>
+        <v>0.375</v>
       </c>
       <c r="L22" t="n">
-        <v>0.507</v>
+        <v>0.425</v>
       </c>
       <c r="M22" t="n">
         <v>4.907407407407407</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.638</v>
       </c>
       <c r="C23" t="n">
         <v>0.671</v>
@@ -1493,10 +1493,10 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.709</v>
       </c>
       <c r="H23" t="n">
-        <v>0.374</v>
+        <v>0.441</v>
       </c>
       <c r="I23" t="n">
         <v>0.581</v>
@@ -1527,7 +1527,7 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D24" t="n">
         <v>0.451</v>
@@ -1545,16 +1545,16 @@
         <v>0.361</v>
       </c>
       <c r="I24" t="n">
-        <v>0.485</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.235</v>
+        <v>0.336</v>
       </c>
       <c r="K24" t="n">
         <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>0.434</v>
+        <v>0.391</v>
       </c>
       <c r="M24" t="n">
         <v>3.877551020408163</v>
@@ -1576,7 +1576,7 @@
         <v>0.628</v>
       </c>
       <c r="D25" t="n">
-        <v>0.478</v>
+        <v>0.529</v>
       </c>
       <c r="E25" t="n">
         <v>0.578</v>
@@ -1585,7 +1585,7 @@
         <v>0.501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.675</v>
+        <v>0.782</v>
       </c>
       <c r="H25" t="n">
         <v>0.36</v>
@@ -1600,7 +1600,7 @@
         <v>0.414</v>
       </c>
       <c r="L25" t="n">
-        <v>0.507</v>
+        <v>0.424</v>
       </c>
       <c r="M25" t="n">
         <v>2.442307692307693</v>
@@ -1631,7 +1631,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.615</v>
+        <v>0.676</v>
       </c>
       <c r="H26" t="n">
         <v>0.385</v>
@@ -1640,7 +1640,7 @@
         <v>0.548</v>
       </c>
       <c r="J26" t="n">
-        <v>0.335</v>
+        <v>0.48</v>
       </c>
       <c r="K26" t="n">
         <v>0.5</v>
@@ -1677,7 +1677,7 @@
         <v>0.571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.611</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0.352</v>
@@ -1686,13 +1686,13 @@
         <v>0.532</v>
       </c>
       <c r="J27" t="n">
-        <v>0.321</v>
+        <v>0.48</v>
       </c>
       <c r="K27" t="n">
         <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>0.431</v>
+        <v>0.421</v>
       </c>
       <c r="M27" t="n">
         <v>2.666666666666667</v>
@@ -1711,19 +1711,19 @@
         <v>0.584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.712</v>
+        <v>0.631</v>
       </c>
       <c r="D28" t="n">
-        <v>0.45</v>
+        <v>0.491</v>
       </c>
       <c r="E28" t="n">
-        <v>0.627</v>
+        <v>0.556</v>
       </c>
       <c r="F28" t="n">
         <v>0.571</v>
       </c>
       <c r="G28" t="n">
-        <v>0.633</v>
+        <v>0.719</v>
       </c>
       <c r="H28" t="n">
         <v>0.39</v>
@@ -1757,13 +1757,13 @@
         <v>0.61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.694</v>
+        <v>0.629</v>
       </c>
       <c r="D29" t="n">
         <v>0.457</v>
       </c>
       <c r="E29" t="n">
-        <v>0.613</v>
+        <v>0.516</v>
       </c>
       <c r="F29" t="n">
         <v>0.5590000000000001</v>
@@ -1784,7 +1784,7 @@
         <v>0.471</v>
       </c>
       <c r="L29" t="n">
-        <v>0.439</v>
+        <v>0.395</v>
       </c>
       <c r="M29" t="n">
         <v>2.122448979591837</v>
@@ -1803,19 +1803,19 @@
         <v>0.546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.671</v>
+        <v>0.571</v>
       </c>
       <c r="D30" t="n">
         <v>0.424</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="F30" t="n">
         <v>0.535</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52</v>
+        <v>0.633</v>
       </c>
       <c r="H30" t="n">
         <v>0.391</v>
@@ -1861,7 +1861,7 @@
         <v>0.543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.633</v>
       </c>
       <c r="H31" t="n">
         <v>0.376</v>
@@ -1870,7 +1870,7 @@
         <v>0.534</v>
       </c>
       <c r="J31" t="n">
-        <v>0.343</v>
+        <v>0.501</v>
       </c>
       <c r="K31" t="n">
         <v>0.434</v>
@@ -1895,19 +1895,19 @@
         <v>0.673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="D32" t="n">
         <v>0.426</v>
       </c>
       <c r="E32" t="n">
-        <v>0.605</v>
+        <v>0.524</v>
       </c>
       <c r="F32" t="n">
         <v>0.511</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="H32" t="n">
         <v>0.463</v>
@@ -1953,7 +1953,7 @@
         <v>0.517</v>
       </c>
       <c r="G33" t="n">
-        <v>0.634</v>
+        <v>0.746</v>
       </c>
       <c r="H33" t="n">
         <v>0.383</v>
@@ -1962,10 +1962,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.278</v>
+        <v>0.384</v>
       </c>
       <c r="K33" t="n">
-        <v>0.504</v>
+        <v>0.551</v>
       </c>
       <c r="L33" t="n">
         <v>0.451</v>
@@ -1990,16 +1990,16 @@
         <v>0.638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.444</v>
+        <v>0.494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.594</v>
+        <v>0.519</v>
       </c>
       <c r="F34" t="n">
         <v>0.542</v>
       </c>
       <c r="G34" t="n">
-        <v>0.642</v>
+        <v>0.725</v>
       </c>
       <c r="H34" t="n">
         <v>0.343</v>
@@ -2045,16 +2045,16 @@
         <v>0.5639999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.615</v>
+        <v>0.72</v>
       </c>
       <c r="H35" t="n">
-        <v>0.374</v>
+        <v>0.425</v>
       </c>
       <c r="I35" t="n">
         <v>0.547</v>
       </c>
       <c r="J35" t="n">
-        <v>0.335</v>
+        <v>0.369</v>
       </c>
       <c r="K35" t="n">
         <v>0.479</v>
@@ -2085,16 +2085,16 @@
         <v>0.478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.592</v>
+        <v>0.519</v>
       </c>
       <c r="F36" t="n">
         <v>0.556</v>
       </c>
       <c r="G36" t="n">
-        <v>0.593</v>
+        <v>0.711</v>
       </c>
       <c r="H36" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="I36" t="n">
         <v>0.552</v>
@@ -2131,16 +2131,16 @@
         <v>0.484</v>
       </c>
       <c r="E37" t="n">
-        <v>0.642</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F37" t="n">
         <v>0.553</v>
       </c>
       <c r="G37" t="n">
-        <v>0.662</v>
+        <v>0.729</v>
       </c>
       <c r="H37" t="n">
-        <v>0.371</v>
+        <v>0.43</v>
       </c>
       <c r="I37" t="n">
         <v>0.539</v>
@@ -2152,7 +2152,7 @@
         <v>0.45</v>
       </c>
       <c r="L37" t="n">
-        <v>0.516</v>
+        <v>0.432</v>
       </c>
       <c r="M37" t="n">
         <v>2.021739130434783</v>
@@ -2174,16 +2174,16 @@
         <v>0.61</v>
       </c>
       <c r="D38" t="n">
-        <v>0.48</v>
+        <v>0.543</v>
       </c>
       <c r="E38" t="n">
-        <v>0.63</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F38" t="n">
         <v>0.57</v>
       </c>
       <c r="G38" t="n">
-        <v>0.645</v>
+        <v>0.805</v>
       </c>
       <c r="H38" t="n">
         <v>0.362</v>
@@ -2220,7 +2220,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.391</v>
+        <v>0.477</v>
       </c>
       <c r="E39" t="n">
         <v>0.586</v>
@@ -2238,13 +2238,13 @@
         <v>0.545</v>
       </c>
       <c r="J39" t="n">
-        <v>0.33</v>
+        <v>0.418</v>
       </c>
       <c r="K39" t="n">
-        <v>0.581</v>
+        <v>0.475</v>
       </c>
       <c r="L39" t="n">
-        <v>0.507</v>
+        <v>0.422</v>
       </c>
       <c r="M39" t="n">
         <v>6.416666666666667</v>
@@ -2275,10 +2275,10 @@
         <v>0.525</v>
       </c>
       <c r="G40" t="n">
-        <v>0.582</v>
+        <v>0.785</v>
       </c>
       <c r="H40" t="n">
-        <v>0.347</v>
+        <v>0.375</v>
       </c>
       <c r="I40" t="n">
         <v>0.542</v>
@@ -2315,10 +2315,10 @@
         <v>0.483</v>
       </c>
       <c r="E41" t="n">
-        <v>0.603</v>
+        <v>0.57</v>
       </c>
       <c r="F41" t="n">
-        <v>0.591</v>
+        <v>0.555</v>
       </c>
       <c r="G41" t="n">
         <v>0.731</v>
@@ -2330,13 +2330,13 @@
         <v>0.519</v>
       </c>
       <c r="J41" t="n">
-        <v>0.257</v>
+        <v>0.366</v>
       </c>
       <c r="K41" t="n">
         <v>0.406</v>
       </c>
       <c r="L41" t="n">
-        <v>0.481</v>
+        <v>0.397</v>
       </c>
       <c r="M41" t="n">
         <v>4.785714285714286</v>
@@ -2367,10 +2367,10 @@
         <v>0.581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.627</v>
+        <v>0.704</v>
       </c>
       <c r="H42" t="n">
-        <v>0.337</v>
+        <v>0.47</v>
       </c>
       <c r="I42" t="n">
         <v>0.539</v>
@@ -2404,19 +2404,19 @@
         <v>0.58</v>
       </c>
       <c r="D43" t="n">
-        <v>0.471</v>
+        <v>0.461</v>
       </c>
       <c r="E43" t="n">
-        <v>0.589</v>
+        <v>0.539</v>
       </c>
       <c r="F43" t="n">
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.72</v>
       </c>
       <c r="H43" t="n">
-        <v>0.373</v>
+        <v>0.425</v>
       </c>
       <c r="I43" t="n">
         <v>0.547</v>
@@ -2447,19 +2447,19 @@
         <v>0.614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.702</v>
+        <v>0.654</v>
       </c>
       <c r="D44" t="n">
         <v>0.467</v>
       </c>
       <c r="E44" t="n">
-        <v>0.619</v>
+        <v>0.582</v>
       </c>
       <c r="F44" t="n">
         <v>0.569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="H44" t="n">
         <v>0.367</v>
@@ -2496,16 +2496,16 @@
         <v>0.662</v>
       </c>
       <c r="D45" t="n">
-        <v>0.412</v>
+        <v>0.431</v>
       </c>
       <c r="E45" t="n">
-        <v>0.587</v>
+        <v>0.519</v>
       </c>
       <c r="F45" t="n">
         <v>0.634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.589</v>
+        <v>0.706</v>
       </c>
       <c r="H45" t="n">
         <v>0.372</v>
@@ -2545,7 +2545,7 @@
         <v>0.439</v>
       </c>
       <c r="E46" t="n">
-        <v>0.639</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F46" t="n">
         <v>0.49</v>
@@ -2560,13 +2560,13 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0.413</v>
+        <v>0.507</v>
       </c>
       <c r="K46" t="n">
         <v>0.44</v>
       </c>
       <c r="L46" t="n">
-        <v>0.513</v>
+        <v>0.457</v>
       </c>
       <c r="M46" t="n">
         <v>2.282051282051282</v>
@@ -2591,7 +2591,7 @@
         <v>0.502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.551</v>
+        <v>0.516</v>
       </c>
       <c r="F47" t="n">
         <v>0.5580000000000001</v>
@@ -2606,13 +2606,13 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.266</v>
+        <v>0.4</v>
       </c>
       <c r="K47" t="n">
         <v>0.483</v>
       </c>
       <c r="L47" t="n">
-        <v>0.453</v>
+        <v>0.395</v>
       </c>
       <c r="M47" t="n">
         <v>1.342857142857143</v>
@@ -2643,7 +2643,7 @@
         <v>0.525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.533</v>
+        <v>0.756</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2680,7 +2680,7 @@
         <v>0.588</v>
       </c>
       <c r="D49" t="n">
-        <v>0.403</v>
+        <v>0.412</v>
       </c>
       <c r="E49" t="n">
         <v>0.533</v>
@@ -2698,13 +2698,13 @@
         <v>0.602</v>
       </c>
       <c r="J49" t="n">
-        <v>0.293</v>
+        <v>0.533</v>
       </c>
       <c r="K49" t="n">
         <v>0.608</v>
       </c>
       <c r="L49" t="n">
-        <v>0.52</v>
+        <v>0.399</v>
       </c>
       <c r="M49" t="n">
         <v>0.7407407407407407</v>
@@ -2729,19 +2729,19 @@
         <v>0.472</v>
       </c>
       <c r="E50" t="n">
-        <v>0.554</v>
+        <v>0.516</v>
       </c>
       <c r="F50" t="n">
         <v>0.569</v>
       </c>
       <c r="G50" t="n">
-        <v>0.536</v>
+        <v>0.624</v>
       </c>
       <c r="H50" t="n">
         <v>0.37</v>
       </c>
       <c r="I50" t="n">
-        <v>0.495</v>
+        <v>0.592</v>
       </c>
       <c r="J50" t="n">
         <v>0.39</v>
@@ -2750,7 +2750,7 @@
         <v>0.492</v>
       </c>
       <c r="L50" t="n">
-        <v>0.451</v>
+        <v>0.395</v>
       </c>
       <c r="M50" t="n">
         <v>1.466666666666667</v>
@@ -2775,13 +2775,13 @@
         <v>0.451</v>
       </c>
       <c r="E51" t="n">
-        <v>0.645</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F51" t="n">
         <v>0.532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.641</v>
+        <v>0.756</v>
       </c>
       <c r="H51" t="n">
         <v>0.37</v>
@@ -2821,16 +2821,16 @@
         <v>0.485</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.508</v>
       </c>
       <c r="F52" t="n">
         <v>0.554</v>
       </c>
       <c r="G52" t="n">
-        <v>0.582</v>
+        <v>0.661</v>
       </c>
       <c r="H52" t="n">
-        <v>0.347</v>
+        <v>0.382</v>
       </c>
       <c r="I52" t="n">
         <v>0.528</v>
@@ -2870,13 +2870,13 @@
         <v>0.589</v>
       </c>
       <c r="F53" t="n">
-        <v>0.549</v>
+        <v>0.653</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.709</v>
       </c>
       <c r="H53" t="n">
-        <v>0.336</v>
+        <v>0.474</v>
       </c>
       <c r="I53" t="n">
         <v>0.533</v>
@@ -2888,7 +2888,7 @@
         <v>0.462</v>
       </c>
       <c r="L53" t="n">
-        <v>0.464</v>
+        <v>0.412</v>
       </c>
       <c r="M53" t="n">
         <v>3.555555555555555</v>
@@ -2913,13 +2913,13 @@
         <v>0.456</v>
       </c>
       <c r="E54" t="n">
-        <v>0.577</v>
+        <v>0.519</v>
       </c>
       <c r="F54" t="n">
         <v>0.572</v>
       </c>
       <c r="G54" t="n">
-        <v>0.544</v>
+        <v>0.669</v>
       </c>
       <c r="H54" t="n">
         <v>0.363</v>
@@ -2959,13 +2959,13 @@
         <v>0.453</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.516</v>
       </c>
       <c r="F55" t="n">
         <v>0.492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.556</v>
+        <v>0.642</v>
       </c>
       <c r="H55" t="n">
         <v>0.382</v>
@@ -2980,7 +2980,7 @@
         <v>0.488</v>
       </c>
       <c r="L55" t="n">
-        <v>0.437</v>
+        <v>0.395</v>
       </c>
       <c r="M55" t="n">
         <v>3.916666666666667</v>
@@ -2999,13 +2999,13 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.731</v>
+        <v>0.621</v>
       </c>
       <c r="D56" t="n">
         <v>0.452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.642</v>
+        <v>0.547</v>
       </c>
       <c r="F56" t="n">
         <v>0.524</v>
@@ -3026,7 +3026,7 @@
         <v>0.478</v>
       </c>
       <c r="L56" t="n">
-        <v>0.469</v>
+        <v>0.387</v>
       </c>
       <c r="M56" t="n">
         <v>1.961538461538461</v>
@@ -3048,16 +3048,16 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.412</v>
+        <v>0.43</v>
       </c>
       <c r="E57" t="n">
-        <v>0.577</v>
+        <v>0.519</v>
       </c>
       <c r="F57" t="n">
         <v>0.602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.589</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0.367</v>
@@ -3069,7 +3069,7 @@
         <v>0.356</v>
       </c>
       <c r="K57" t="n">
-        <v>0.451</v>
+        <v>0.358</v>
       </c>
       <c r="L57" t="n">
         <v>0.438</v>
@@ -3097,19 +3097,19 @@
         <v>0.503</v>
       </c>
       <c r="E58" t="n">
-        <v>0.596</v>
+        <v>0.523</v>
       </c>
       <c r="F58" t="n">
         <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.616</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
         <v>0.37</v>
       </c>
       <c r="I58" t="n">
-        <v>0.537</v>
+        <v>0.501</v>
       </c>
       <c r="J58" t="n">
         <v>0.361</v>
@@ -3137,19 +3137,19 @@
         <v>0.619</v>
       </c>
       <c r="C59" t="n">
-        <v>0.718</v>
+        <v>0.648</v>
       </c>
       <c r="D59" t="n">
         <v>0.456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.632</v>
+        <v>0.575</v>
       </c>
       <c r="F59" t="n">
         <v>0.621</v>
       </c>
       <c r="G59" t="n">
-        <v>0.676</v>
+        <v>0.793</v>
       </c>
       <c r="H59" t="n">
         <v>0.361</v>
@@ -3195,10 +3195,10 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.582</v>
+        <v>0.72</v>
       </c>
       <c r="H60" t="n">
-        <v>0.342</v>
+        <v>0.425</v>
       </c>
       <c r="I60" t="n">
         <v>0.496</v>
@@ -3241,10 +3241,10 @@
         <v>0.612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.533</v>
+        <v>0.675</v>
       </c>
       <c r="H61" t="n">
-        <v>0.338</v>
+        <v>0.424</v>
       </c>
       <c r="I61" t="n">
         <v>0.577</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.711</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.698</v>
+        <v>0.617</v>
       </c>
       <c r="C63" t="n">
         <v>0.616</v>
@@ -3327,13 +3327,13 @@
         <v>0.465</v>
       </c>
       <c r="E63" t="n">
-        <v>0.614</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F63" t="n">
         <v>0.555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.625</v>
+        <v>0.72</v>
       </c>
       <c r="H63" t="n">
         <v>0.388</v>
@@ -3367,13 +3367,13 @@
         <v>0.672</v>
       </c>
       <c r="C64" t="n">
-        <v>0.731</v>
+        <v>0.669</v>
       </c>
       <c r="D64" t="n">
         <v>0.465</v>
       </c>
       <c r="E64" t="n">
-        <v>0.642</v>
+        <v>0.525</v>
       </c>
       <c r="F64" t="n">
         <v>0.585</v>
@@ -3385,7 +3385,7 @@
         <v>0.35</v>
       </c>
       <c r="I64" t="n">
-        <v>0.508</v>
+        <v>0.504</v>
       </c>
       <c r="J64" t="n">
         <v>0.275</v>
@@ -3419,13 +3419,13 @@
         <v>0.49</v>
       </c>
       <c r="E65" t="n">
-        <v>0.603</v>
+        <v>0.582</v>
       </c>
       <c r="F65" t="n">
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.573</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
@@ -3462,7 +3462,7 @@
         <v>0.624</v>
       </c>
       <c r="D66" t="n">
-        <v>0.412</v>
+        <v>0.458</v>
       </c>
       <c r="E66" t="n">
         <v>0.5620000000000001</v>
@@ -3471,16 +3471,16 @@
         <v>0.595</v>
       </c>
       <c r="G66" t="n">
-        <v>0.589</v>
+        <v>0.653</v>
       </c>
       <c r="H66" t="n">
         <v>0.346</v>
       </c>
       <c r="I66" t="n">
-        <v>0.546</v>
+        <v>0.612</v>
       </c>
       <c r="J66" t="n">
-        <v>0.305</v>
+        <v>0.48</v>
       </c>
       <c r="K66" t="n">
         <v>0.432</v>
@@ -3517,13 +3517,13 @@
         <v>0.593</v>
       </c>
       <c r="G67" t="n">
-        <v>0.594</v>
+        <v>0.729</v>
       </c>
       <c r="H67" t="n">
-        <v>0.378</v>
+        <v>0.43</v>
       </c>
       <c r="I67" t="n">
-        <v>0.526</v>
+        <v>0.547</v>
       </c>
       <c r="J67" t="n">
         <v>0.355</v>
@@ -3563,7 +3563,7 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.793</v>
       </c>
       <c r="H68" t="n">
         <v>0.362</v>
@@ -3578,7 +3578,7 @@
         <v>0.487</v>
       </c>
       <c r="L68" t="n">
-        <v>0.443</v>
+        <v>0.419</v>
       </c>
       <c r="M68" t="n">
         <v>1.727272727272727</v>
@@ -3609,7 +3609,7 @@
         <v>0.518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.616</v>
+        <v>0.746</v>
       </c>
       <c r="H69" t="n">
         <v>0.371</v>
@@ -3618,7 +3618,7 @@
         <v>0.529</v>
       </c>
       <c r="J69" t="n">
-        <v>0.276</v>
+        <v>0.343</v>
       </c>
       <c r="K69" t="n">
         <v>0.485</v>
@@ -3655,7 +3655,7 @@
         <v>0.507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.778</v>
       </c>
       <c r="H70" t="n">
         <v>0.369</v>
@@ -3689,7 +3689,7 @@
         <v>0.646</v>
       </c>
       <c r="C71" t="n">
-        <v>0.679</v>
+        <v>0.698</v>
       </c>
       <c r="D71" t="n">
         <v>0.446</v>
@@ -3701,7 +3701,7 @@
         <v>0.601</v>
       </c>
       <c r="G71" t="n">
-        <v>0.675</v>
+        <v>0.702</v>
       </c>
       <c r="H71" t="n">
         <v>0.331</v>
@@ -3710,13 +3710,13 @@
         <v>0.534</v>
       </c>
       <c r="J71" t="n">
-        <v>0.278</v>
+        <v>0.466</v>
       </c>
       <c r="K71" t="n">
         <v>0.383</v>
       </c>
       <c r="L71" t="n">
-        <v>0.46</v>
+        <v>0.407</v>
       </c>
       <c r="M71" t="n">
         <v>4.325</v>
@@ -3735,7 +3735,7 @@
         <v>0.639</v>
       </c>
       <c r="C72" t="n">
-        <v>0.722</v>
+        <v>0.62</v>
       </c>
       <c r="D72" t="n">
         <v>0.42</v>
@@ -3747,7 +3747,7 @@
         <v>0.576</v>
       </c>
       <c r="G72" t="n">
-        <v>0.621</v>
+        <v>0.754</v>
       </c>
       <c r="H72" t="n">
         <v>0.388</v>
@@ -3759,7 +3759,7 @@
         <v>0.4</v>
       </c>
       <c r="K72" t="n">
-        <v>0.584</v>
+        <v>0.538</v>
       </c>
       <c r="L72" t="n">
         <v>0.454</v>
@@ -3787,13 +3787,13 @@
         <v>0.436</v>
       </c>
       <c r="E73" t="n">
-        <v>0.63</v>
+        <v>0.552</v>
       </c>
       <c r="F73" t="n">
         <v>0.546</v>
       </c>
       <c r="G73" t="n">
-        <v>0.616</v>
+        <v>0.78</v>
       </c>
       <c r="H73" t="n">
         <v>0.369</v>
@@ -3827,7 +3827,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.721</v>
+        <v>0.584</v>
       </c>
       <c r="D74" t="n">
         <v>0.398</v>
@@ -3839,7 +3839,7 @@
         <v>0.488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.552</v>
+        <v>0.712</v>
       </c>
       <c r="H74" t="n">
         <v>0.408</v>
@@ -3885,16 +3885,16 @@
         <v>0.521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.582</v>
+        <v>0.655</v>
       </c>
       <c r="H75" t="n">
         <v>0.348</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.612</v>
       </c>
       <c r="J75" t="n">
-        <v>0.325</v>
+        <v>0.48</v>
       </c>
       <c r="K75" t="n">
         <v>0.445</v>
@@ -3931,13 +3931,13 @@
         <v>0.576</v>
       </c>
       <c r="G76" t="n">
-        <v>0.542</v>
+        <v>0.78</v>
       </c>
       <c r="H76" t="n">
         <v>0.375</v>
       </c>
       <c r="I76" t="n">
-        <v>0.498</v>
+        <v>0.548</v>
       </c>
       <c r="J76" t="n">
         <v>0.367</v>
@@ -3977,13 +3977,13 @@
         <v>0.533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.669</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0.343</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.639</v>
       </c>
       <c r="J77" t="n">
         <v>0.353</v>
@@ -3992,7 +3992,7 @@
         <v>0.525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.465</v>
+        <v>0.433</v>
       </c>
       <c r="M77" t="n">
         <v>1.862068965517241</v>
@@ -4011,7 +4011,7 @@
         <v>0.591</v>
       </c>
       <c r="C78" t="n">
-        <v>0.644</v>
+        <v>0.729</v>
       </c>
       <c r="D78" t="n">
         <v>0.47</v>
@@ -4023,7 +4023,7 @@
         <v>0.554</v>
       </c>
       <c r="G78" t="n">
-        <v>0.578</v>
+        <v>0.794</v>
       </c>
       <c r="H78" t="n">
         <v>0.38</v>
@@ -4063,13 +4063,13 @@
         <v>0.422</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611</v>
+        <v>0.541</v>
       </c>
       <c r="F79" t="n">
         <v>0.522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.604</v>
+        <v>0.78</v>
       </c>
       <c r="H79" t="n">
         <v>0.37</v>
@@ -4081,7 +4081,7 @@
         <v>0.377</v>
       </c>
       <c r="K79" t="n">
-        <v>0.448</v>
+        <v>0.582</v>
       </c>
       <c r="L79" t="n">
         <v>0.45</v>
@@ -4103,13 +4103,13 @@
         <v>0.591</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="D80" t="n">
         <v>0.463</v>
       </c>
       <c r="E80" t="n">
-        <v>0.604</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F80" t="n">
         <v>0.5</v>
@@ -4118,13 +4118,13 @@
         <v>0.658</v>
       </c>
       <c r="H80" t="n">
-        <v>0.343</v>
+        <v>0.443</v>
       </c>
       <c r="I80" t="n">
         <v>0.514</v>
       </c>
       <c r="J80" t="n">
-        <v>0.293</v>
+        <v>0.474</v>
       </c>
       <c r="K80" t="n">
         <v>0.417</v>
@@ -4152,7 +4152,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.397</v>
+        <v>0.479</v>
       </c>
       <c r="E81" t="n">
         <v>0.506</v>
@@ -4161,7 +4161,7 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.698</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4207,10 +4207,10 @@
         <v>0.62</v>
       </c>
       <c r="G82" t="n">
-        <v>0.634</v>
+        <v>0.772</v>
       </c>
       <c r="H82" t="n">
-        <v>0.377</v>
+        <v>0.414</v>
       </c>
       <c r="I82" t="n">
         <v>0.528</v>
@@ -4241,13 +4241,13 @@
         <v>0.636</v>
       </c>
       <c r="C83" t="n">
-        <v>0.712</v>
+        <v>0.667</v>
       </c>
       <c r="D83" t="n">
         <v>0.456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.627</v>
+        <v>0.516</v>
       </c>
       <c r="F83" t="n">
         <v>0.483</v>
@@ -4268,7 +4268,7 @@
         <v>0.395</v>
       </c>
       <c r="L83" t="n">
-        <v>0.429</v>
+        <v>0.395</v>
       </c>
       <c r="M83" t="n">
         <v>2.4375</v>
@@ -4299,10 +4299,10 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.729</v>
       </c>
       <c r="H84" t="n">
-        <v>0.307</v>
+        <v>0.43</v>
       </c>
       <c r="I84" t="n">
         <v>0.544</v>
@@ -4339,13 +4339,13 @@
         <v>0.441</v>
       </c>
       <c r="E85" t="n">
-        <v>0.639</v>
+        <v>0.533</v>
       </c>
       <c r="F85" t="n">
         <v>0.523</v>
       </c>
       <c r="G85" t="n">
-        <v>0.571</v>
+        <v>0.709</v>
       </c>
       <c r="H85" t="n">
         <v>0.405</v>
@@ -4360,7 +4360,7 @@
         <v>0.463</v>
       </c>
       <c r="L85" t="n">
-        <v>0.513</v>
+        <v>0.463</v>
       </c>
       <c r="M85" t="n">
         <v>1.777777777777778</v>
@@ -4379,7 +4379,7 @@
         <v>0.537</v>
       </c>
       <c r="C86" t="n">
-        <v>0.699</v>
+        <v>0.719</v>
       </c>
       <c r="D86" t="n">
         <v>0.431</v>
@@ -4400,13 +4400,13 @@
         <v>0.502</v>
       </c>
       <c r="J86" t="n">
-        <v>0.243</v>
+        <v>0.501</v>
       </c>
       <c r="K86" t="n">
         <v>0.411</v>
       </c>
       <c r="L86" t="n">
-        <v>0.496</v>
+        <v>0.387</v>
       </c>
       <c r="M86" t="n">
         <v>7.911764705882353</v>
@@ -4428,7 +4428,7 @@
         <v>0.615</v>
       </c>
       <c r="D87" t="n">
-        <v>0.455</v>
+        <v>0.543</v>
       </c>
       <c r="E87" t="n">
         <v>0.575</v>
@@ -4437,7 +4437,7 @@
         <v>0.609</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H87" t="n">
         <v>0.354</v>
@@ -4452,7 +4452,7 @@
         <v>0.459</v>
       </c>
       <c r="L87" t="n">
-        <v>0.482</v>
+        <v>0.422</v>
       </c>
       <c r="M87" t="n">
         <v>0.5600000000000001</v>
@@ -4477,13 +4477,13 @@
         <v>0.431</v>
       </c>
       <c r="E88" t="n">
-        <v>0.594</v>
+        <v>0.548</v>
       </c>
       <c r="F88" t="n">
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632</v>
+        <v>0.794</v>
       </c>
       <c r="H88" t="n">
         <v>0.341</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.794</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4544,7 +4544,7 @@
         <v>0.407</v>
       </c>
       <c r="L89" t="n">
-        <v>0.442</v>
+        <v>0.41</v>
       </c>
       <c r="M89" t="n">
         <v>1.375</v>
@@ -4575,16 +4575,16 @@
         <v>0.476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.599</v>
+        <v>0.729</v>
       </c>
       <c r="H90" t="n">
-        <v>0.336</v>
+        <v>0.43</v>
       </c>
       <c r="I90" t="n">
         <v>0.507</v>
       </c>
       <c r="J90" t="n">
-        <v>0.281</v>
+        <v>0.319</v>
       </c>
       <c r="K90" t="n">
         <v>0.468</v>
@@ -4621,10 +4621,10 @@
         <v>0.54</v>
       </c>
       <c r="G91" t="n">
-        <v>0.578</v>
+        <v>0.72</v>
       </c>
       <c r="H91" t="n">
-        <v>0.342</v>
+        <v>0.425</v>
       </c>
       <c r="I91" t="n">
         <v>0.5629999999999999</v>
@@ -4661,7 +4661,7 @@
         <v>0.498</v>
       </c>
       <c r="E92" t="n">
-        <v>0.634</v>
+        <v>0.52</v>
       </c>
       <c r="F92" t="n">
         <v>0.518</v>
@@ -4682,7 +4682,7 @@
         <v>0.449</v>
       </c>
       <c r="L92" t="n">
-        <v>0.481</v>
+        <v>0.385</v>
       </c>
       <c r="M92" t="n">
         <v>6.5</v>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.625</v>
+        <v>0.71</v>
       </c>
       <c r="C93" t="n">
         <v>0.644</v>
@@ -4707,16 +4707,16 @@
         <v>0.365</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F93" t="n">
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.754</v>
       </c>
       <c r="H93" t="n">
-        <v>0.381</v>
+        <v>0.392</v>
       </c>
       <c r="I93" t="n">
         <v>0.524</v>
@@ -4747,7 +4747,7 @@
         <v>0.607</v>
       </c>
       <c r="C94" t="n">
-        <v>0.724</v>
+        <v>0.633</v>
       </c>
       <c r="D94" t="n">
         <v>0.46</v>
@@ -4765,16 +4765,16 @@
         <v>0.357</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.612</v>
       </c>
       <c r="J94" t="n">
-        <v>0.375</v>
+        <v>0.48</v>
       </c>
       <c r="K94" t="n">
         <v>0.483</v>
       </c>
       <c r="L94" t="n">
-        <v>0.51</v>
+        <v>0.442</v>
       </c>
       <c r="M94" t="n">
         <v>2.074074074074074</v>
@@ -4799,16 +4799,16 @@
         <v>0.483</v>
       </c>
       <c r="E95" t="n">
-        <v>0.596</v>
+        <v>0.547</v>
       </c>
       <c r="F95" t="n">
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.622</v>
+        <v>0.72</v>
       </c>
       <c r="H95" t="n">
-        <v>0.342</v>
+        <v>0.425</v>
       </c>
       <c r="I95" t="n">
         <v>0.5649999999999999</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.653</v>
       </c>
       <c r="C96" t="n">
         <v>0.631</v>
@@ -4851,7 +4851,7 @@
         <v>0.594</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0.34</v>
@@ -4866,7 +4866,7 @@
         <v>0.46</v>
       </c>
       <c r="L96" t="n">
-        <v>0.484</v>
+        <v>0.413</v>
       </c>
       <c r="M96" t="n">
         <v>2.451612903225806</v>
@@ -4888,7 +4888,7 @@
         <v>0.645</v>
       </c>
       <c r="D97" t="n">
-        <v>0.375</v>
+        <v>0.491</v>
       </c>
       <c r="E97" t="n">
         <v>0.531</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.719</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -4934,7 +4934,7 @@
         <v>0.615</v>
       </c>
       <c r="D98" t="n">
-        <v>0.44</v>
+        <v>0.491</v>
       </c>
       <c r="E98" t="n">
         <v>0.547</v>
@@ -4943,7 +4943,7 @@
         <v>0.516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.719</v>
       </c>
       <c r="H98" t="n">
         <v>0.362</v>
@@ -4977,7 +4977,7 @@
         <v>0.635</v>
       </c>
       <c r="C99" t="n">
-        <v>0.694</v>
+        <v>0.618</v>
       </c>
       <c r="D99" t="n">
         <v>0.451</v>
@@ -4989,7 +4989,7 @@
         <v>0.528</v>
       </c>
       <c r="G99" t="n">
-        <v>0.632</v>
+        <v>0.794</v>
       </c>
       <c r="H99" t="n">
         <v>0.343</v>
@@ -5023,7 +5023,7 @@
         <v>0.584</v>
       </c>
       <c r="C100" t="n">
-        <v>0.712</v>
+        <v>0.621</v>
       </c>
       <c r="D100" t="n">
         <v>0.439</v>
@@ -5035,13 +5035,13 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.771</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
       </c>
       <c r="I100" t="n">
-        <v>0.617</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J100" t="n">
         <v>0.332</v>
@@ -5069,13 +5069,13 @@
         <v>0.571</v>
       </c>
       <c r="C101" t="n">
-        <v>0.721</v>
+        <v>0.737</v>
       </c>
       <c r="D101" t="n">
         <v>0.456</v>
       </c>
       <c r="E101" t="n">
-        <v>0.617</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F101" t="n">
         <v>0.583</v>
@@ -5084,7 +5084,7 @@
         <v>0.773</v>
       </c>
       <c r="H101" t="n">
-        <v>0.314</v>
+        <v>0.374</v>
       </c>
       <c r="I101" t="n">
         <v>0.521</v>
@@ -5096,7 +5096,7 @@
         <v>0.333</v>
       </c>
       <c r="L101" t="n">
-        <v>0.508</v>
+        <v>0.409</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
